--- a/pythonProject/script.xlsx
+++ b/pythonProject/script.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Desktop/multi/pythonProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidayman/Desktop/wsc/pythonProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D83A48-5B20-3F43-846D-2B56D6EB4503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516DBA63-537F-1B4D-9E88-37B9A3A634AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19540" xr2:uid="{65493556-1D46-334B-8973-350C04BA0FE5}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="33600" windowHeight="19380" xr2:uid="{65493556-1D46-334B-8973-350C04BA0FE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -59,20 +59,23 @@
     <t>صباح الخير ولي أمر المخدوم ماثيو تامر مع حضرتك ك: ديفيد أيمن من فريق براعم. أستأذن حضرتك تخلي ابنك-بنتك يجيب اللبس ده معاه. اللبس: قميص وبنطلون ما يكونش قميص الكشافة</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>Message</t>
   </si>
   <si>
     <t>hiii</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>201200779554</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -102,6 +105,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -123,11 +132,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,198 +566,198 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="101" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
         <v>1200779554</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1200779554</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1200779554</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
